--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D27B55-15F8-984B-97C8-8D8E4CBE91E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AA8B37-2654-9443-A8A4-6727FE483651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67260" yWindow="-9140" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -376,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x.todo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x.category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,6 +578,10 @@
   </si>
   <si>
     <t>e88406bd-8fe0-488d-a91b-e0c54d7accb4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.todo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,247 +807,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1458,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1551,7 +1313,7 @@
     </row>
     <row r="5" spans="1:9" ht="66">
       <c r="A5" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="15" t="s">
@@ -1578,7 +1340,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
@@ -1606,7 +1368,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="8" t="str">
         <f t="shared" ref="B7:B13" si="0">A$5</f>
@@ -1634,7 +1396,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1647,13 +1409,13 @@
         <v>27</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="F8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="H8" s="24">
         <v>3</v>
@@ -1662,7 +1424,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1675,13 +1437,13 @@
         <v>28</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="24">
         <v>4</v>
@@ -1690,7 +1452,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1703,13 +1465,13 @@
         <v>29</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="24">
         <v>5</v>
@@ -1718,7 +1480,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1731,13 +1493,13 @@
         <v>30</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="24">
         <v>6</v>
@@ -1746,7 +1508,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1759,13 +1521,13 @@
         <v>31</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="24">
         <v>7</v>
@@ -1774,7 +1536,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1787,13 +1549,13 @@
         <v>32</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="24">
         <v>8</v>
@@ -1802,7 +1564,7 @@
     </row>
     <row r="14" spans="1:9" ht="66">
       <c r="A14" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="15" t="s">
@@ -1829,7 +1591,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>A$14</f>
@@ -1842,13 +1604,13 @@
         <v>35</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15" s="24">
         <v>1</v>
@@ -1857,7 +1619,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" ref="B16:B22" si="1">A$14</f>
@@ -1870,13 +1632,13 @@
         <v>36</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="24">
         <v>2</v>
@@ -1885,7 +1647,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1898,13 +1660,13 @@
         <v>41</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" s="24">
         <v>3</v>
@@ -1913,7 +1675,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1926,13 +1688,13 @@
         <v>37</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="24">
         <v>4</v>
@@ -1941,7 +1703,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1954,13 +1716,13 @@
         <v>38</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="24">
         <v>5</v>
@@ -1969,7 +1731,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1982,13 +1744,13 @@
         <v>39</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F20" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H20" s="24">
         <v>6</v>
@@ -1997,7 +1759,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2010,13 +1772,13 @@
         <v>40</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H21" s="24">
         <v>7</v>
@@ -2025,7 +1787,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2038,13 +1800,13 @@
         <v>42</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H22" s="24">
         <v>8</v>
@@ -2053,7 +1815,7 @@
     </row>
     <row r="23" spans="1:9" ht="66">
       <c r="A23" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="15" t="s">
@@ -2080,7 +1842,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B24" s="8" t="str">
         <f>A$23</f>
@@ -2108,7 +1870,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="8" t="str">
         <f t="shared" ref="B25:B29" si="2">A$23</f>
@@ -2136,7 +1898,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2164,7 +1926,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2192,7 +1954,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2220,7 +1982,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2248,7 +2010,7 @@
     </row>
     <row r="30" spans="1:9" ht="66">
       <c r="A30" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="15" t="s">
@@ -2275,7 +2037,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="8" t="str">
         <f>A$30</f>
@@ -2303,7 +2065,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="8" t="str">
         <f t="shared" ref="B32:B38" si="3">A$30</f>
@@ -2313,16 +2075,16 @@
         <v>21</v>
       </c>
       <c r="D32" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>108</v>
-      </c>
       <c r="F32" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H32" s="24">
         <v>2</v>
@@ -2331,7 +2093,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2359,7 +2121,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2387,7 +2149,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B35" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2397,16 +2159,16 @@
         <v>21</v>
       </c>
       <c r="D35" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>110</v>
-      </c>
       <c r="F35" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H35" s="24">
         <v>5</v>
@@ -2415,7 +2177,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B36" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2443,7 +2205,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2471,7 +2233,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2499,7 +2261,7 @@
     </row>
     <row r="39" spans="1:9" ht="66">
       <c r="A39" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B39" s="17"/>
       <c r="C39" s="15" t="s">
@@ -2526,7 +2288,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B40" s="8" t="str">
         <f>A39</f>
@@ -2554,7 +2316,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41" s="8" t="str">
         <f t="shared" ref="B41:B46" si="4">A40</f>
@@ -2582,7 +2344,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B42" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2610,7 +2372,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B43" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2638,7 +2400,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2694,7 +2456,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2704,16 +2466,16 @@
         <v>21</v>
       </c>
       <c r="D46" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>106</v>
-      </c>
       <c r="F46" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H46" s="24">
         <v>7</v>
@@ -2722,7 +2484,7 @@
     </row>
     <row r="47" spans="1:9" ht="66">
       <c r="A47" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" s="17"/>
       <c r="C47" s="15" t="s">
@@ -2753,18 +2515,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1 F48:F1048576 F3:F31 F33:F34 F36:F45">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="34" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AA8B37-2654-9443-A8A4-6727FE483651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EA44E5-F039-6C46-BC1F-E2E711C1F9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67260" yWindow="-9140" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="155">
   <si>
     <t>code</t>
   </si>
@@ -582,6 +582,17 @@
   </si>
   <si>
     <t>w.todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7c4f27cd-fb1c-45cf-a403-fc5d0fb8522c</t>
+  </si>
+  <si>
+    <t>文件管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x.attachment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1218,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:I47"/>
+  <dimension ref="A2:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1371,7 +1382,7 @@
         <v>112</v>
       </c>
       <c r="B7" s="8" t="str">
-        <f t="shared" ref="B7:B13" si="0">A$5</f>
+        <f t="shared" ref="B7:B14" si="0">A$5</f>
         <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1536,7 +1547,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1546,136 +1557,136 @@
         <v>21</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="F13" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="H13" s="24">
         <v>8</v>
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="66">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="24">
+        <v>9</v>
+      </c>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="66">
+      <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="F15" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="21">
         <v>2</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I15" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="8" t="str">
-        <f>A$14</f>
-        <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="24">
-        <v>1</v>
-      </c>
-      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="8" t="str">
-        <f t="shared" ref="B16:B22" si="1">A$14</f>
+        <f>A$15</f>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B17:B23" si="1">A$15</f>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F17" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="23" t="s">
-        <v>101</v>
+      <c r="G17" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="H17" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1685,25 +1696,25 @@
         <v>21</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F18" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H18" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1713,25 +1724,25 @@
         <v>21</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H19" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1741,25 +1752,25 @@
         <v>21</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1769,25 +1780,25 @@
         <v>21</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H21" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1797,136 +1808,136 @@
         <v>21</v>
       </c>
       <c r="D22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="24">
+        <v>7</v>
+      </c>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E23" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="F23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H23" s="24">
         <v>8</v>
       </c>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="66">
-      <c r="A23" s="16" t="s">
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" ht="66">
+      <c r="A24" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="21">
+      <c r="F24" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="21">
         <v>3</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I24" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="8" t="str">
-        <f>A$23</f>
-        <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="13"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="8" t="str">
-        <f t="shared" ref="B25:B29" si="2">A$23</f>
+        <f>A$24</f>
         <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F25" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H25" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B26:B30" si="2">A$24</f>
         <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H26" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1936,25 +1947,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H27" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1964,25 +1975,25 @@
         <v>21</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H28" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" si="2"/>
@@ -1992,136 +2003,136 @@
         <v>21</v>
       </c>
       <c r="D29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="24">
+        <v>5</v>
+      </c>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="23" t="s">
+      <c r="F30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H30" s="24">
         <v>6</v>
       </c>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" ht="66">
-      <c r="A30" s="16" t="s">
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" ht="66">
+      <c r="A31" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="21">
+      <c r="F31" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="21">
         <v>4</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I31" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="8" t="str">
-        <f>A$30</f>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="24">
-        <v>1</v>
-      </c>
-      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" s="8" t="str">
-        <f t="shared" ref="B32:B38" si="3">A$30</f>
+        <f>A$31</f>
         <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F32" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="H32" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B33:B39" si="3">A$31</f>
         <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="F33" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="H33" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2131,25 +2142,25 @@
         <v>21</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H34" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B35" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2159,25 +2170,25 @@
         <v>21</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="F35" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="H35" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B36" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2187,25 +2198,25 @@
         <v>21</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="F36" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="H36" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2215,25 +2226,25 @@
         <v>21</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F37" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H37" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2243,269 +2254,297 @@
         <v>21</v>
       </c>
       <c r="D38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="24">
+        <v>7</v>
+      </c>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E39" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10" t="s">
+      <c r="F39" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H39" s="24">
         <v>8</v>
       </c>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" ht="66">
-      <c r="A39" s="16" t="s">
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" ht="66">
+      <c r="A40" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="B40" s="17"/>
+      <c r="C40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="21">
+      <c r="F40" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="21">
         <v>5</v>
       </c>
-      <c r="I39" s="22" t="s">
+      <c r="I40" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="8" t="str">
-        <f>A39</f>
-        <v>e391106f-8f49-4523-a662-d65859277e88</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="24">
-        <v>1</v>
-      </c>
-      <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="8" t="str">
-        <f t="shared" ref="B41:B46" si="4">A40</f>
-        <v>d8ebd00e-e7e1-45a4-8e2a-05e85f7906db</v>
+        <f>A40</f>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H41" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="8" t="str">
+        <f t="shared" ref="B42:B47" si="4">A41</f>
+        <v>d8ebd00e-e7e1-45a4-8e2a-05e85f7906db</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="24">
+        <v>2</v>
+      </c>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="8" t="str">
+      <c r="B43" s="8" t="str">
         <f t="shared" si="4"/>
         <v>cefe8aa2-0674-417e-b5f2-66335e454128</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="14" t="s">
+      <c r="C43" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E43" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10" t="s">
+      <c r="F43" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H43" s="24">
         <v>3</v>
       </c>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="8" t="s">
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="8" t="str">
+      <c r="B44" s="8" t="str">
         <f t="shared" si="4"/>
         <v>786239ba-03df-427c-b55b-365a662bfa2f</v>
       </c>
-      <c r="C43" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="14" t="s">
+      <c r="C44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E44" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10" t="s">
+      <c r="F44" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H44" s="24">
         <v>4</v>
       </c>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="8" t="s">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B45" s="8" t="str">
         <f t="shared" si="4"/>
         <v>559dccb2-31e5-4ff2-9b80-6ce26c86b7f6</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="14" t="s">
+      <c r="C45" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E45" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" s="10" t="s">
+      <c r="F45" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H45" s="24">
         <v>5</v>
       </c>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="8" t="s">
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="8" t="str">
+      <c r="B46" s="8" t="str">
         <f t="shared" si="4"/>
         <v>fe18bec5-d437-4f75-a514-2b29f96ea556</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="14" t="s">
+      <c r="C46" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E46" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10" t="s">
+      <c r="F46" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H46" s="24">
         <v>6</v>
       </c>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="8" t="s">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="8" t="str">
+      <c r="B47" s="8" t="str">
         <f t="shared" si="4"/>
         <v>316e22c8-fb5a-4b4b-942b-cbebfeb2d49f</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="14" t="s">
+      <c r="C47" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E47" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" s="23" t="s">
+      <c r="F47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H47" s="24">
         <v>7</v>
       </c>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" ht="66">
-      <c r="A47" s="16" t="s">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" ht="66">
+      <c r="A48" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="15" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E48" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="21">
+      <c r="F48" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="21">
         <v>6</v>
       </c>
-      <c r="I47" s="22" t="s">
+      <c r="I48" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2514,7 +2553,7 @@
     <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F48:F1048576 F3:F31 F33:F34 F36:F45">
+  <conditionalFormatting sqref="F1 F49:F1048576 F3:F32 F34:F35 F37:F46">
     <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -2522,7 +2561,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F48">
     <cfRule type="cellIs" dxfId="7" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -2530,7 +2569,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F47">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -2538,7 +2577,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="F33">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -2546,7 +2585,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="F36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EA44E5-F039-6C46-BC1F-E2E711C1F9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499C41C8-9C42-2548-A175-25B60BF7382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67260" yWindow="-9140" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="38440" yWindow="-3500" windowWidth="34220" windowHeight="26580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="197">
   <si>
     <t>code</t>
   </si>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LBS服务资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发工具箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,9 +477,6 @@
     <t>442c5dc6-726b-4d9c-9c13-93c258fb1353</t>
   </si>
   <si>
-    <t>ad23e99a-1541-43cf-a69a-bf552207459d</t>
-  </si>
-  <si>
     <t>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</t>
   </si>
   <si>
@@ -588,12 +581,173 @@
     <t>7c4f27cd-fb1c-45cf-a403-fc5d0fb8522c</t>
   </si>
   <si>
-    <t>文件管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x.attachment</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27d3e46d-6428-47c4-b02f-78114d6dfb55</t>
+  </si>
+  <si>
+    <t>集成配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x.integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90975699-d4ea-4a0e-bee9-ca1e6687eff7</t>
+  </si>
+  <si>
+    <t>resource.fm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.debt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.term</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm.bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</t>
+  </si>
+  <si>
+    <t>6f088c1c-ea4b-422e-922a-b4411808115e</t>
+  </si>
+  <si>
+    <t>99a51e2c-77bf-486e-879f-9b752904826a</t>
+  </si>
+  <si>
+    <t>e529d508-bdf3-4fee-add4-1f8328369fb5</t>
+  </si>
+  <si>
+    <t>015fd675-3a5e-4fca-b3cf-f712b55dc762</t>
+  </si>
+  <si>
+    <t>2fecae99-8cbc-4045-88d9-14aef79424b7</t>
+  </si>
+  <si>
+    <t>515efc4e-a70c-4146-ab8b-a034f26b39c9</t>
+  </si>
+  <si>
+    <t>1032f3c8-df45-4d28-8443-a7b5bfe3977c</t>
+  </si>
+  <si>
+    <t>账单处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBS服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource.lbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbs.tent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lbs.floor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</t>
+  </si>
+  <si>
+    <t>1893ab43-95f4-4702-a469-a2c795da4444</t>
+  </si>
+  <si>
+    <t>91546f10-f8c3-423a-a364-7e16f3906bc2</t>
+  </si>
+  <si>
+    <t>2620bf4b-db66-41b1-9fab-23207aafade0</t>
+  </si>
+  <si>
+    <t>fm.currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>币种管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7dc0a31e-1af6-42c0-8cc3-a4c8c27f9862</t>
   </si>
 </sst>
 </file>
@@ -818,7 +972,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1229,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:I48"/>
+  <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1324,7 +1498,7 @@
     </row>
     <row r="5" spans="1:9" ht="66">
       <c r="A5" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="15" t="s">
@@ -1351,7 +1525,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
@@ -1364,13 +1538,13 @@
         <v>25</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" s="24">
         <v>1</v>
@@ -1379,10 +1553,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="8" t="str">
-        <f t="shared" ref="B7:B14" si="0">A$5</f>
+        <f t="shared" ref="B7:B15" si="0">A$5</f>
         <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1392,13 +1566,13 @@
         <v>26</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="24">
         <v>2</v>
@@ -1407,26 +1581,26 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B8" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B8" si="1">A$5</f>
         <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H8" s="24">
         <v>3</v>
@@ -1435,7 +1609,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1445,16 +1619,16 @@
         <v>21</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F9" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="H9" s="24">
         <v>4</v>
@@ -1463,7 +1637,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1473,16 +1647,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="F10" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="H10" s="24">
         <v>5</v>
@@ -1491,7 +1665,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1501,16 +1675,16 @@
         <v>21</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F11" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H11" s="24">
         <v>6</v>
@@ -1519,7 +1693,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1529,16 +1703,16 @@
         <v>21</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H12" s="24">
         <v>7</v>
@@ -1547,7 +1721,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1557,16 +1731,16 @@
         <v>21</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="F13" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="H13" s="24">
         <v>8</v>
@@ -1575,7 +1749,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1585,966 +1759,1356 @@
         <v>21</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="24">
         <v>9</v>
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="66">
-      <c r="A15" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="15" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="24">
+        <v>10</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="66">
+      <c r="A16" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="21">
+      <c r="F16" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="21">
         <v>2</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I16" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="8" t="str">
-        <f>A$15</f>
-        <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="24">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B17" s="8" t="str">
-        <f t="shared" ref="B17:B23" si="1">A$15</f>
+        <f>A$16</f>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B18" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B18:B24" si="2">A$16</f>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F18" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>101</v>
+      <c r="G18" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="H18" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F19" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H19" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B20" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F20" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H20" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B21" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H21" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B22" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F22" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H22" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B23" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="24">
+        <v>7</v>
+      </c>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="24">
+        <v>8</v>
+      </c>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="66">
+      <c r="A25" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="24">
-        <v>8</v>
-      </c>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="66">
-      <c r="A24" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="E25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="F25" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="21">
         <v>3</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I25" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="8" t="str">
-        <f>A$24</f>
-        <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="24">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B26" s="8" t="str">
-        <f t="shared" ref="B26:B30" si="2">A$24</f>
+        <f>A$25</f>
         <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F26" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="H26" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B27" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B27:B31" si="3">A$25</f>
         <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F27" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H27" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B28" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F28" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H28" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B29" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F29" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H29" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B30" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="24">
+        <v>5</v>
+      </c>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="24">
+      <c r="F31" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="24">
         <v>6</v>
       </c>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" ht="66">
-      <c r="A31" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="21">
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" ht="66">
+      <c r="A32" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="21">
         <v>4</v>
       </c>
-      <c r="I31" s="22" t="s">
+      <c r="I32" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="8" t="str">
-        <f>A$31</f>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="24">
-        <v>1</v>
-      </c>
-      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="8" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B33" s="8" t="str">
-        <f t="shared" ref="B33:B39" si="3">A$31</f>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C33" s="14" t="s">
+        <f>A$32</f>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>107</v>
+        <v>167</v>
+      </c>
+      <c r="F33" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="H33" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="B34" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C34" s="14" t="s">
+        <f t="shared" ref="B34:B39" si="4">A$32</f>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>61</v>
+        <v>168</v>
+      </c>
+      <c r="F34" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="H34" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="B35" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C35" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>63</v>
+        <v>169</v>
+      </c>
+      <c r="F35" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="H35" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B36" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C36" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>109</v>
+        <v>170</v>
+      </c>
+      <c r="F36" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>170</v>
       </c>
       <c r="H36" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="8" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="B37" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C37" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>65</v>
+        <v>171</v>
+      </c>
+      <c r="F37" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>171</v>
       </c>
       <c r="H37" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="B38" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C38" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>67</v>
+        <v>172</v>
+      </c>
+      <c r="F38" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>172</v>
       </c>
       <c r="H38" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="8" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="B39" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C39" s="14" t="s">
+        <f t="shared" si="4"/>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>69</v>
+        <v>173</v>
+      </c>
+      <c r="F39" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="H39" s="24">
+        <v>7</v>
+      </c>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="8" t="str">
+        <f t="shared" ref="B40" si="5">A$32</f>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" s="24">
         <v>8</v>
       </c>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" ht="66">
-      <c r="A40" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="21">
-        <v>5</v>
-      </c>
-      <c r="I40" s="22" t="s">
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" ht="66">
+      <c r="A41" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="21">
+        <v>4</v>
+      </c>
+      <c r="I41" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="8" t="str">
-        <f>A40</f>
-        <v>e391106f-8f49-4523-a662-d65859277e88</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="24">
-        <v>1</v>
-      </c>
-      <c r="I41" s="13"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B42" s="8" t="str">
-        <f t="shared" ref="B42:B47" si="4">A41</f>
-        <v>d8ebd00e-e7e1-45a4-8e2a-05e85f7906db</v>
+        <f>A$41</f>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F42" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H42" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B43" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>cefe8aa2-0674-417e-b5f2-66335e454128</v>
+        <f t="shared" ref="B43:B49" si="6">A$41</f>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F43" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="H43" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B44" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>786239ba-03df-427c-b55b-365a662bfa2f</v>
+        <f t="shared" si="6"/>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F44" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H44" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B45" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>559dccb2-31e5-4ff2-9b80-6ce26c86b7f6</v>
+        <f t="shared" si="6"/>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F45" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H45" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="B46" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>fe18bec5-d437-4f75-a514-2b29f96ea556</v>
+        <f t="shared" si="6"/>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F46" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="H46" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="24">
+        <v>6</v>
+      </c>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="24">
+        <v>7</v>
+      </c>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="24">
+        <v>8</v>
+      </c>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" ht="66">
+      <c r="A50" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="21">
+        <v>5</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="8" t="str">
+        <f>A50</f>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="24">
+        <v>1</v>
+      </c>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="8" t="str">
+        <f t="shared" ref="B52:B57" si="7">A51</f>
+        <v>d8ebd00e-e7e1-45a4-8e2a-05e85f7906db</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" s="24">
+        <v>2</v>
+      </c>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>cefe8aa2-0674-417e-b5f2-66335e454128</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="24">
+        <v>3</v>
+      </c>
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>786239ba-03df-427c-b55b-365a662bfa2f</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="24">
+        <v>4</v>
+      </c>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>559dccb2-31e5-4ff2-9b80-6ce26c86b7f6</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" s="24">
+        <v>5</v>
+      </c>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>fe18bec5-d437-4f75-a514-2b29f96ea556</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="24">
+        <v>6</v>
+      </c>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>316e22c8-fb5a-4b4b-942b-cbebfeb2d49f</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>316e22c8-fb5a-4b4b-942b-cbebfeb2d49f</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="14" t="s">
+      <c r="E57" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" s="24">
+      <c r="F57" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" s="24">
         <v>7</v>
       </c>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" ht="66">
-      <c r="A48" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="15" t="s">
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" ht="66">
+      <c r="A58" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B58" s="8"/>
+      <c r="C58" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="21">
+        <v>6</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="8" t="str">
+        <f>A$58</f>
+        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" s="24">
+        <v>1</v>
+      </c>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="8" t="str">
+        <f t="shared" ref="B60:B61" si="8">A$58</f>
+        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H60" s="24">
+        <v>2</v>
+      </c>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B61" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H61" s="24">
+        <v>3</v>
+      </c>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" ht="66">
+      <c r="A62" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="21">
-        <v>6</v>
-      </c>
-      <c r="I48" s="22" t="s">
+      <c r="F62" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="21">
+        <v>7</v>
+      </c>
+      <c r="I62" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2553,7 +3117,15 @@
     <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F49:F1048576 F3:F32 F34:F35 F37:F46">
+  <conditionalFormatting sqref="F1 F63:F1048576 F44:F45 F47:F56 F41:F42 F58:F61 F3:F31">
+    <cfRule type="cellIs" dxfId="11" priority="35" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="36" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F62">
     <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -2561,15 +3133,15 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="7" priority="31" operator="equal">
+  <conditionalFormatting sqref="F57:F61">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F43">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -2577,7 +3149,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="F46">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -2585,7 +3157,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F32:F40">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499C41C8-9C42-2548-A175-25B60BF7382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81476A47-A399-F947-B346-0DA376376D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="-3500" windowWidth="34220" windowHeight="26580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="70180" yWindow="-5680" windowWidth="34220" windowHeight="26580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -1405,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -2783,7 +2783,7 @@
         <v>143</v>
       </c>
       <c r="B51" s="8" t="str">
-        <f>A50</f>
+        <f>A$50</f>
         <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C51" s="14" t="s">
@@ -2811,8 +2811,8 @@
         <v>144</v>
       </c>
       <c r="B52" s="8" t="str">
-        <f t="shared" ref="B52:B57" si="7">A51</f>
-        <v>d8ebd00e-e7e1-45a4-8e2a-05e85f7906db</v>
+        <f t="shared" ref="B52:B57" si="7">A$50</f>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>21</v>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="B53" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>cefe8aa2-0674-417e-b5f2-66335e454128</v>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>21</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B54" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>786239ba-03df-427c-b55b-365a662bfa2f</v>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>21</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B55" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>559dccb2-31e5-4ff2-9b80-6ce26c86b7f6</v>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>21</v>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B56" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>fe18bec5-d437-4f75-a514-2b29f96ea556</v>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>21</v>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B57" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>316e22c8-fb5a-4b4b-942b-cbebfeb2d49f</v>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>21</v>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81476A47-A399-F947-B346-0DA376376D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE11C3DE-8C4A-D145-9DA8-FE635D0723B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70180" yWindow="-5680" windowWidth="34220" windowHeight="26580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="73620" yWindow="-12580" windowWidth="34220" windowHeight="26580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="206">
   <si>
     <t>code</t>
   </si>
@@ -748,6 +748,39 @@
   </si>
   <si>
     <t>7dc0a31e-1af6-42c0-8cc3-a4c8c27f9862</t>
+  </si>
+  <si>
+    <t>0d059d25-90e2-46ed-93f5-093e27d37a8c</t>
+  </si>
+  <si>
+    <t>df3b7325-13e7-4aa1-9bbd-5b9fcde9c568</t>
+  </si>
+  <si>
+    <t>10723f63-835a-4463-a30e-236abefb118f</t>
+  </si>
+  <si>
+    <t>进销存服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource.psi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psi.wh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psi.position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1403,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:I62"/>
+  <dimension ref="A2:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B57"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -3086,29 +3119,112 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" ht="66">
-      <c r="A62" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F62" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="20" t="s">
+      <c r="A62" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="23" t="s">
         <v>21</v>
       </c>
       <c r="H62" s="21">
         <v>7</v>
       </c>
       <c r="I62" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="8" t="str">
+        <f>A$62</f>
+        <v>0d059d25-90e2-46ed-93f5-093e27d37a8c</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H63" s="24">
+        <v>1</v>
+      </c>
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="8" t="str">
+        <f>A$62</f>
+        <v>0d059d25-90e2-46ed-93f5-093e27d37a8c</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="24">
+        <v>2</v>
+      </c>
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:9" ht="66">
+      <c r="A65" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="21">
+        <v>8</v>
+      </c>
+      <c r="I65" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3117,7 +3233,7 @@
     <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F63:F1048576 F44:F45 F47:F56 F41:F42 F58:F61 F3:F31">
+  <conditionalFormatting sqref="F1 F66:F1048576 F44:F45 F47:F56 F41:F42 F3:F31 F58:F64">
     <cfRule type="cellIs" dxfId="11" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -3125,7 +3241,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
+  <conditionalFormatting sqref="F65">
     <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -3133,7 +3249,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F61">
+  <conditionalFormatting sqref="F57:F64">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE11C3DE-8C4A-D145-9DA8-FE635D0723B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F6311-550C-EE48-9F40-105A0BFB2CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73620" yWindow="-12580" windowWidth="34220" windowHeight="26580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="63260" yWindow="-8400" windowWidth="34220" windowHeight="26580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="209">
   <si>
     <t>code</t>
   </si>
@@ -780,6 +780,17 @@
   </si>
   <si>
     <t>psi.position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource.integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5c744f47-471a-405c-b616-9b58b9f8ed03</t>
+  </si>
+  <si>
+    <t>集成服务管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1005,27 +1016,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1436,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:I65"/>
+  <dimension ref="A2:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1550,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="21">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>24</v>
@@ -1857,7 +1848,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="21">
-        <v>2</v>
+        <v>1010</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>24</v>
@@ -2108,7 +2099,7 @@
         <v>21</v>
       </c>
       <c r="H25" s="21">
-        <v>3</v>
+        <v>1015</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>24</v>
@@ -2283,18 +2274,18 @@
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="66">
-      <c r="A32" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="8"/>
+      <c r="A32" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="17"/>
       <c r="C32" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="F32" s="19" t="b">
         <v>1</v>
@@ -2303,99 +2294,98 @@
         <v>21</v>
       </c>
       <c r="H32" s="21">
-        <v>4</v>
+        <v>1020</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" ht="66">
       <c r="A33" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" s="8" t="str">
-        <f>A$32</f>
-        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>167</v>
+      <c r="D33" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="F33" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="G33" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="H33" s="24">
-        <v>1</v>
-      </c>
-      <c r="I33" s="13"/>
+      <c r="G33" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="21">
+        <v>1025</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B34" s="8" t="str">
-        <f t="shared" ref="B34:B39" si="4">A$32</f>
+        <f>A$33</f>
         <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F34" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H34" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B35:B40" si="4">A$33</f>
         <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H35" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B36" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2405,25 +2395,25 @@
         <v>21</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F36" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2433,25 +2423,25 @@
         <v>21</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F37" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H37" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B38" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2461,25 +2451,25 @@
         <v>21</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F38" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H38" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2489,164 +2479,164 @@
         <v>21</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H39" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="24">
+        <v>7</v>
+      </c>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="8" t="str">
-        <f t="shared" ref="B40" si="5">A$32</f>
+      <c r="B41" s="8" t="str">
+        <f t="shared" ref="B41" si="5">A$33</f>
         <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="14" t="s">
+      <c r="C41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E41" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F40" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="23" t="s">
+      <c r="F41" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H41" s="24">
         <v>8</v>
       </c>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" ht="66">
-      <c r="A41" s="16" t="s">
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" ht="66">
+      <c r="A42" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="B42" s="17"/>
+      <c r="C42" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E42" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H41" s="21">
-        <v>4</v>
-      </c>
-      <c r="I41" s="22" t="s">
+      <c r="F42" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="21">
+        <v>1030</v>
+      </c>
+      <c r="I42" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="8" t="str">
-        <f>A$41</f>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="24">
-        <v>1</v>
-      </c>
-      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B43" s="8" t="str">
-        <f t="shared" ref="B43:B49" si="6">A$41</f>
+        <f>A$42</f>
         <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="F43" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="H43" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B44:B50" si="6">A$42</f>
         <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="F44" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="H44" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B45" s="8" t="str">
         <f t="shared" si="6"/>
@@ -2656,25 +2646,25 @@
         <v>21</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F45" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H45" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B46" s="8" t="str">
         <f t="shared" si="6"/>
@@ -2684,25 +2674,25 @@
         <v>21</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="F46" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="H46" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" s="8" t="str">
         <f t="shared" si="6"/>
@@ -2712,25 +2702,25 @@
         <v>21</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="F47" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="H47" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B48" s="8" t="str">
         <f t="shared" si="6"/>
@@ -2740,25 +2730,25 @@
         <v>21</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H48" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B49" s="8" t="str">
         <f t="shared" si="6"/>
@@ -2768,136 +2758,136 @@
         <v>21</v>
       </c>
       <c r="D49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="24">
+        <v>7</v>
+      </c>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E50" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10" t="s">
+      <c r="F50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H50" s="24">
         <v>8</v>
       </c>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="1:9" ht="66">
-      <c r="A50" s="16" t="s">
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" ht="66">
+      <c r="A51" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="15" t="s">
+      <c r="B51" s="17"/>
+      <c r="C51" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E51" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="21">
-        <v>5</v>
-      </c>
-      <c r="I50" s="22" t="s">
+      <c r="F51" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="21">
+        <v>1035</v>
+      </c>
+      <c r="I51" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="8" t="str">
-        <f>A$50</f>
-        <v>e391106f-8f49-4523-a662-d65859277e88</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51" s="24">
-        <v>1</v>
-      </c>
-      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="8" t="str">
-        <f t="shared" ref="B52:B57" si="7">A$50</f>
+        <f>A$51</f>
         <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H52" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B53" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B53:B58" si="7">A$51</f>
         <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H53" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B54" s="8" t="str">
         <f t="shared" si="7"/>
@@ -2907,25 +2897,25 @@
         <v>21</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H54" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="8" t="str">
         <f t="shared" si="7"/>
@@ -2935,25 +2925,25 @@
         <v>21</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F55" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H55" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="8" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="B56" s="8" t="str">
         <f t="shared" si="7"/>
@@ -2963,25 +2953,25 @@
         <v>21</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F56" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H56" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="8" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B57" s="8" t="str">
         <f t="shared" si="7"/>
@@ -2991,240 +2981,268 @@
         <v>21</v>
       </c>
       <c r="D57" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" s="24">
+        <v>6</v>
+      </c>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E58" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" s="23" t="s">
+      <c r="F58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H58" s="24">
         <v>7</v>
       </c>
-      <c r="I57" s="13"/>
-    </row>
-    <row r="58" spans="1:9" ht="66">
-      <c r="A58" s="8" t="s">
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" ht="66">
+      <c r="A59" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="14" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E59" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="F58" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="21">
-        <v>6</v>
-      </c>
-      <c r="I58" s="22" t="s">
+      <c r="F59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="21">
+        <v>1040</v>
+      </c>
+      <c r="I59" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B59" s="8" t="str">
-        <f>A$58</f>
-        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H59" s="24">
-        <v>1</v>
-      </c>
-      <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B60" s="8" t="str">
-        <f t="shared" ref="B60:B61" si="8">A$58</f>
+        <f>A$59</f>
         <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="F60" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="H60" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="8" t="str">
+        <f t="shared" ref="B61:B62" si="8">A$59</f>
+        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H61" s="24">
+        <v>2</v>
+      </c>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B61" s="8" t="str">
+      <c r="B62" s="8" t="str">
         <f t="shared" si="8"/>
         <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="14" t="s">
+      <c r="C62" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E62" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F61" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" s="23" t="s">
+      <c r="F62" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="H61" s="24">
+      <c r="H62" s="24">
         <v>3</v>
       </c>
-      <c r="I61" s="13"/>
-    </row>
-    <row r="62" spans="1:9" ht="66">
-      <c r="A62" s="8" t="s">
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" ht="66">
+      <c r="A63" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="14" t="s">
+      <c r="B63" s="8"/>
+      <c r="C63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E63" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F62" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="21">
-        <v>7</v>
-      </c>
-      <c r="I62" s="22" t="s">
+      <c r="F63" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="21">
+        <v>1045</v>
+      </c>
+      <c r="I63" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="8" t="str">
-        <f>A$62</f>
-        <v>0d059d25-90e2-46ed-93f5-093e27d37a8c</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="F63" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="H63" s="24">
-        <v>1</v>
-      </c>
-      <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="8" t="str">
+        <f>A$63</f>
+        <v>0d059d25-90e2-46ed-93f5-093e27d37a8c</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F64" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H64" s="24">
+        <v>1</v>
+      </c>
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B64" s="8" t="str">
-        <f>A$62</f>
+      <c r="B65" s="8" t="str">
+        <f>A$63</f>
         <v>0d059d25-90e2-46ed-93f5-093e27d37a8c</v>
       </c>
-      <c r="C64" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="14" t="s">
+      <c r="C65" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E65" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F64" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="23" t="s">
+      <c r="F65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="H64" s="24">
+      <c r="H65" s="24">
         <v>2</v>
       </c>
-      <c r="I64" s="13"/>
-    </row>
-    <row r="65" spans="1:9" ht="66">
-      <c r="A65" s="16" t="s">
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" ht="66">
+      <c r="A66" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="15" t="s">
+      <c r="B66" s="17"/>
+      <c r="C66" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E66" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F65" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="21">
-        <v>8</v>
-      </c>
-      <c r="I65" s="22" t="s">
+      <c r="F66" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="21">
+        <v>1050</v>
+      </c>
+      <c r="I66" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3233,23 +3251,15 @@
     <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F66:F1048576 F44:F45 F47:F56 F41:F42 F3:F31 F58:F64">
-    <cfRule type="cellIs" dxfId="11" priority="35" operator="equal">
+  <conditionalFormatting sqref="F1 F45:F46 F48:F57 F42:F43 F59:F1048576 F3:F32">
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="9" priority="33" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F57:F64">
+  <conditionalFormatting sqref="F58:F65">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -3257,7 +3267,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
+  <conditionalFormatting sqref="F44">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -3265,7 +3275,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
+  <conditionalFormatting sqref="F47">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -3273,7 +3283,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F40">
+  <conditionalFormatting sqref="F33:F41">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F6311-550C-EE48-9F40-105A0BFB2CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD11354-9EB8-544F-A1B3-A356DC9AB813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="63260" yWindow="-8400" windowWidth="34220" windowHeight="26580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
   <dimension ref="A2:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F66" activeCellId="8" sqref="F16 F25 F32 F33 F42 F51 F59 F63 F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1535,7 +1535,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>21</v>
@@ -1842,7 +1842,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>21</v>
@@ -2093,7 +2093,7 @@
         <v>43</v>
       </c>
       <c r="F25" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>21</v>
@@ -2288,7 +2288,7 @@
         <v>206</v>
       </c>
       <c r="F32" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="20" t="s">
         <v>21</v>
@@ -2315,7 +2315,7 @@
         <v>159</v>
       </c>
       <c r="F33" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>21</v>
@@ -2566,7 +2566,7 @@
         <v>56</v>
       </c>
       <c r="F42" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" s="20" t="s">
         <v>21</v>
@@ -2817,7 +2817,7 @@
         <v>70</v>
       </c>
       <c r="F51" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="20" t="s">
         <v>21</v>
@@ -3039,8 +3039,8 @@
       <c r="E59" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="F59" s="9" t="b">
-        <v>1</v>
+      <c r="F59" s="19" t="b">
+        <v>0</v>
       </c>
       <c r="G59" s="23" t="s">
         <v>21</v>
@@ -3150,8 +3150,8 @@
       <c r="E63" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="9" t="b">
-        <v>1</v>
+      <c r="F63" s="19" t="b">
+        <v>0</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>21</v>
@@ -3234,7 +3234,7 @@
         <v>85</v>
       </c>
       <c r="F66" s="19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="20" t="s">
         <v>21</v>
@@ -3251,7 +3251,7 @@
     <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F45:F46 F48:F57 F42:F43 F59:F1048576 F3:F32">
+  <conditionalFormatting sqref="F1 F45:F46 F3:F33 F42:F43 F48:F57 F59:F1048576">
     <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -3283,7 +3283,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F41">
+  <conditionalFormatting sqref="F34:F41">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>

--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/ambient.cat.resource.tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD11354-9EB8-544F-A1B3-A356DC9AB813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006F50E-287B-2C4F-922B-02AD8013D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63260" yWindow="-8400" windowWidth="34220" windowHeight="26580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="59480" yWindow="-8620" windowWidth="34220" windowHeight="26580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="222">
   <si>
     <t>code</t>
   </si>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统待办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别字典</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,22 +588,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x.integration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>w.flow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90975699-d4ea-4a0e-bee9-ca1e6687eff7</t>
   </si>
   <si>
@@ -790,8 +774,71 @@
     <t>5c744f47-471a-405c-b616-9b58b9f8ed03</t>
   </si>
   <si>
-    <t>集成服务管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>resource.modulat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2b2234c-286d-4b50-96f6-6dde00c07a28</t>
+  </si>
+  <si>
+    <t>流程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource.flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bd7c6ba3-a5be-4e1b-9e7f-79e14d877ffb</t>
+  </si>
+  <si>
+    <t>三方集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i.intergration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aac39d3b-fc68-4e20-a189-4d5559e84507</t>
+  </si>
+  <si>
+    <t>模块包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85e04065-bd3d-43f9-9ea3-aa6fbceb1b41</t>
+  </si>
+  <si>
+    <t>4cf6e613-df6e-490e-82bf-5cffce677a22</t>
   </si>
 </sst>
 </file>
@@ -938,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1012,31 +1059,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1427,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
-  <dimension ref="A2:I66"/>
+  <dimension ref="A2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F66" activeCellId="8" sqref="F16 F25 F32 F33 F42 F51 F59 F63 F66"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1522,7 +1552,7 @@
     </row>
     <row r="5" spans="1:9" ht="66">
       <c r="A5" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="15" t="s">
@@ -1549,7 +1579,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
@@ -1562,25 +1592,25 @@
         <v>25</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="24">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="8" t="str">
-        <f t="shared" ref="B7:B15" si="0">A$5</f>
+        <f t="shared" ref="B7:B11" si="0">A$5</f>
         <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -1590,50 +1620,50 @@
         <v>26</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="24">
-        <v>2</v>
+        <v>1010</v>
       </c>
       <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B8" s="8" t="str">
-        <f t="shared" ref="B8" si="1">A$5</f>
+        <f t="shared" si="0"/>
         <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="F8" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="H8" s="24">
-        <v>3</v>
+        <v>1015</v>
       </c>
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1643,25 +1673,25 @@
         <v>21</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="F9" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="H9" s="24">
-        <v>4</v>
+        <v>1020</v>
       </c>
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1671,25 +1701,25 @@
         <v>21</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="F10" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="H10" s="24">
-        <v>5</v>
+        <v>1025</v>
       </c>
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1699,1465 +1729,1464 @@
         <v>21</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H11" s="24">
-        <v>6</v>
+        <v>1030</v>
       </c>
       <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="B12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>A$5</f>
         <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F12" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H12" s="24">
-        <v>7</v>
+        <v>1040</v>
       </c>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="24">
-        <v>8</v>
-      </c>
-      <c r="I13" s="13"/>
+    <row r="13" spans="1:9" ht="66">
+      <c r="A13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="21">
+        <v>1010</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
+        <f>A$13</f>
+        <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>92</v>
+      <c r="G14" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="H14" s="24">
-        <v>9</v>
+        <v>1005</v>
       </c>
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>a7bd125f-1b43-4fba-be91-42f83d38089a</v>
+        <f t="shared" ref="B15:B21" si="1">A$13</f>
+        <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="F15" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>151</v>
+      <c r="G15" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="H15" s="24">
-        <v>10</v>
+        <v>1010</v>
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="66">
-      <c r="A16" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="21">
-        <v>1010</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>24</v>
-      </c>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="24">
+        <v>1015</v>
+      </c>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B17" s="8" t="str">
-        <f>A$16</f>
+        <f t="shared" si="1"/>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>94</v>
+      <c r="G17" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="H17" s="24">
-        <v>1</v>
+        <v>1020</v>
       </c>
       <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B18" s="8" t="str">
-        <f t="shared" ref="B18:B24" si="2">A$16</f>
+        <f t="shared" si="1"/>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F18" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>95</v>
+      <c r="G18" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="H18" s="24">
-        <v>2</v>
+        <v>1025</v>
       </c>
       <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F19" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H19" s="24">
-        <v>3</v>
+        <v>1030</v>
       </c>
       <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B20" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F20" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H20" s="24">
-        <v>4</v>
+        <v>1035</v>
       </c>
       <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B21" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F21" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H21" s="24">
-        <v>5</v>
+        <v>1040</v>
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="24">
-        <v>6</v>
-      </c>
-      <c r="I22" s="13"/>
+    <row r="22" spans="1:9" ht="66">
+      <c r="A22" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="21">
+        <v>1015</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B23" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
+        <f>A$22</f>
+        <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F23" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H23" s="24">
-        <v>7</v>
+        <v>1005</v>
       </c>
       <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B24" s="8" t="str">
+        <f t="shared" ref="B24:B28" si="2">A$22</f>
+        <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="24">
+        <v>1010</v>
+      </c>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>501120e9-d1be-4cd2-b3c7-e5c5228f2e44</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="24">
-        <v>8</v>
-      </c>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" ht="66">
-      <c r="A25" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="21">
+        <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="24">
         <v>1015</v>
       </c>
-      <c r="I25" s="22" t="s">
-        <v>24</v>
-      </c>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B26" s="8" t="str">
-        <f>A$25</f>
+        <f t="shared" si="2"/>
         <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="F26" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="H26" s="24">
-        <v>1</v>
+        <v>1020</v>
       </c>
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B27" s="8" t="str">
-        <f t="shared" ref="B27:B31" si="3">A$25</f>
+        <f t="shared" si="2"/>
         <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F27" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H27" s="24">
-        <v>2</v>
+        <v>1025</v>
       </c>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B28" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F28" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H28" s="24">
-        <v>3</v>
+        <v>1030</v>
       </c>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="24">
-        <v>4</v>
-      </c>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9">
+    <row r="29" spans="1:9" ht="66">
+      <c r="A29" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="21">
+        <v>1020</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="66">
       <c r="A30" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="24">
-        <v>5</v>
-      </c>
-      <c r="I30" s="13"/>
+        <v>170</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="21">
+        <v>1025</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="8" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="B31" s="8" t="str">
+        <f>A$30</f>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F31" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="24">
+        <v>1005</v>
+      </c>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f t="shared" ref="B32:B37" si="3">A$30</f>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="24">
+        <v>1010</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>2ee55c37-3f2d-4628-8583-d073041e868d</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="24">
-        <v>6</v>
-      </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" ht="66">
-      <c r="A32" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="F32" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="21">
-        <v>1020</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="66">
-      <c r="A33" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" s="8"/>
+        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
+      </c>
       <c r="C33" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>159</v>
+      <c r="D33" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="F33" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="21">
-        <v>1025</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="24">
+        <v>1015</v>
+      </c>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" s="8" t="str">
-        <f>A$33</f>
+        <f t="shared" si="3"/>
         <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F34" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H34" s="24">
-        <v>1</v>
+        <v>1020</v>
       </c>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="8" t="str">
-        <f t="shared" ref="B35:B40" si="4">A$33</f>
+        <f t="shared" si="3"/>
         <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F35" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" s="24">
-        <v>2</v>
+        <v>1025</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F36" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H36" s="24">
-        <v>3</v>
+        <v>1030</v>
       </c>
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B37" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F37" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H37" s="24">
-        <v>4</v>
+        <v>1035</v>
       </c>
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B38" s="8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B38" si="4">A$30</f>
         <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F38" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H38" s="24">
-        <v>5</v>
+        <v>1040</v>
       </c>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B39" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
-      </c>
+    <row r="39" spans="1:9" ht="66">
+      <c r="A39" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="17"/>
       <c r="C39" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>172</v>
+      <c r="D39" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="F39" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="H39" s="24">
-        <v>6</v>
-      </c>
-      <c r="I39" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="21">
+        <v>1030</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="B40" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
-      </c>
-      <c r="C40" s="15" t="s">
+        <f>A$39</f>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>173</v>
+        <v>57</v>
+      </c>
+      <c r="F40" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="H40" s="24">
-        <v>7</v>
+        <v>1005</v>
       </c>
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="B41" s="8" t="str">
-        <f t="shared" ref="B41" si="5">A$33</f>
-        <v>89f2a233-3b52-4fd2-95e7-11a0dc0bdba8</v>
-      </c>
-      <c r="C41" s="15" t="s">
+        <f t="shared" ref="B41:B47" si="5">A$39</f>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>194</v>
+        <v>105</v>
+      </c>
+      <c r="F41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="H41" s="24">
-        <v>8</v>
+        <v>1010</v>
       </c>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" ht="66">
-      <c r="A42" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="21">
-        <v>1030</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>24</v>
-      </c>
+    <row r="42" spans="1:9">
+      <c r="A42" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="24">
+        <v>1015</v>
+      </c>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B43" s="8" t="str">
-        <f>A$42</f>
+        <f t="shared" si="5"/>
         <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F43" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H43" s="24">
-        <v>1</v>
+        <v>1020</v>
       </c>
       <c r="I43" s="13"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B44" s="8" t="str">
-        <f t="shared" ref="B44:B50" si="6">A$42</f>
+        <f t="shared" si="5"/>
         <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F44" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H44" s="24">
-        <v>2</v>
+        <v>1025</v>
       </c>
       <c r="I44" s="13"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B45" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F45" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H45" s="24">
-        <v>3</v>
+        <v>1030</v>
       </c>
       <c r="I45" s="13"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B46" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F46" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H46" s="24">
-        <v>4</v>
+        <v>1035</v>
       </c>
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B47" s="8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="F47" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="H47" s="24">
-        <v>5</v>
+        <v>1040</v>
       </c>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="24">
-        <v>6</v>
-      </c>
-      <c r="I48" s="13"/>
+    <row r="48" spans="1:9" ht="66">
+      <c r="A48" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="21">
+        <v>1035</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B49" s="8" t="str">
-        <f t="shared" si="6"/>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
+        <f>A$48</f>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F49" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H49" s="24">
-        <v>7</v>
+        <v>1005</v>
       </c>
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B50" s="8" t="str">
+        <f t="shared" ref="B50:B55" si="6">A$48</f>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H50" s="24">
+        <v>1010</v>
+      </c>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="8" t="str">
         <f t="shared" si="6"/>
-        <v>15d054b3-db6f-4fd2-bcb2-51faa8daa746</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="24">
-        <v>8</v>
-      </c>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" ht="66">
-      <c r="A51" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="21">
-        <v>1035</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>24</v>
-      </c>
+        <v>e391106f-8f49-4523-a662-d65859277e88</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" s="24">
+        <v>1015</v>
+      </c>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B52" s="8" t="str">
-        <f>A$51</f>
+        <f t="shared" si="6"/>
         <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C52" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F52" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H52" s="24">
-        <v>1</v>
+        <v>1020</v>
       </c>
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B53" s="8" t="str">
-        <f t="shared" ref="B53:B58" si="7">A$51</f>
+        <f t="shared" si="6"/>
         <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F53" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H53" s="24">
-        <v>2</v>
+        <v>1025</v>
       </c>
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="8" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="B54" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F54" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H54" s="24">
-        <v>3</v>
+        <v>1030</v>
       </c>
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B55" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>e391106f-8f49-4523-a662-d65859277e88</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="F55" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>78</v>
+      <c r="G55" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="H55" s="24">
-        <v>4</v>
+        <v>1035</v>
       </c>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" ht="66">
       <c r="A56" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>e391106f-8f49-4523-a662-d65859277e88</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B56" s="8"/>
       <c r="C56" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H56" s="24">
-        <v>5</v>
-      </c>
-      <c r="I56" s="13"/>
+        <v>183</v>
+      </c>
+      <c r="F56" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="21">
+        <v>1040</v>
+      </c>
+      <c r="I56" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="8" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="B57" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>e391106f-8f49-4523-a662-d65859277e88</v>
+        <f>A$56</f>
+        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F57" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>83</v>
+      <c r="G57" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="H57" s="24">
-        <v>6</v>
+        <v>1005</v>
       </c>
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="8" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="B58" s="8" t="str">
+        <f t="shared" ref="B58:B59" si="7">A$56</f>
+        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="H58" s="24">
+        <v>1010</v>
+      </c>
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>e391106f-8f49-4523-a662-d65859277e88</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="H58" s="24">
-        <v>7</v>
-      </c>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" spans="1:9" ht="66">
-      <c r="A59" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" s="8"/>
+        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
+      </c>
       <c r="C59" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F59" s="19" t="b">
+        <v>185</v>
+      </c>
+      <c r="F59" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="H59" s="24">
+        <v>1015</v>
+      </c>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" ht="66">
+      <c r="A60" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G59" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="21">
-        <v>1040</v>
-      </c>
-      <c r="I59" s="22" t="s">
+      <c r="G60" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="21">
+        <v>1045</v>
+      </c>
+      <c r="I60" s="22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B60" s="8" t="str">
-        <f>A$59</f>
-        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="H60" s="24">
-        <v>1</v>
-      </c>
-      <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B61" s="8" t="str">
-        <f t="shared" ref="B61:B62" si="8">A$59</f>
-        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
+        <f>A$60</f>
+        <v>0d059d25-90e2-46ed-93f5-093e27d37a8c</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F61" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H61" s="24">
-        <v>2</v>
+        <v>1005</v>
       </c>
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B62" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v>4e68fe4f-7a49-43bd-90d7-fd90a6fced41</v>
+        <f>A$60</f>
+        <v>0d059d25-90e2-46ed-93f5-093e27d37a8c</v>
       </c>
       <c r="C62" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F62" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H62" s="24">
-        <v>3</v>
+        <v>1010</v>
       </c>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" ht="66">
-      <c r="A63" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>201</v>
+    <row r="63" spans="1:9" s="27" customFormat="1" ht="66">
+      <c r="A63" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>208</v>
       </c>
       <c r="F63" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="G63" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H63" s="21">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="I63" s="22" t="s">
         <v>24</v>
@@ -3165,84 +3194,223 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="8" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="B64" s="8" t="str">
         <f>A$63</f>
-        <v>0d059d25-90e2-46ed-93f5-093e27d37a8c</v>
+        <v>bd7c6ba3-a5be-4e1b-9e7f-79e14d877ffb</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="F64" s="9" t="b">
         <v>1</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="H64" s="24">
-        <v>1</v>
+        <v>1005</v>
       </c>
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="8" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="B65" s="8" t="str">
         <f>A$63</f>
-        <v>0d059d25-90e2-46ed-93f5-093e27d37a8c</v>
+        <v>bd7c6ba3-a5be-4e1b-9e7f-79e14d877ffb</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E65" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" s="24">
+        <v>1010</v>
+      </c>
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="8" t="str">
+        <f>A$63</f>
+        <v>bd7c6ba3-a5be-4e1b-9e7f-79e14d877ffb</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="H66" s="24">
+        <v>1015</v>
+      </c>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" s="27" customFormat="1" ht="66">
+      <c r="A67" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F65" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="H65" s="24">
-        <v>2</v>
-      </c>
-      <c r="I65" s="13"/>
-    </row>
-    <row r="66" spans="1:9" ht="66">
-      <c r="A66" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="15" t="s">
+      <c r="E67" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="21">
+        <v>1055</v>
+      </c>
+      <c r="I67" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="8" t="str">
+        <f>A$67</f>
+        <v>a2b2234c-286d-4b50-96f6-6dde00c07a28</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="H68" s="24">
+        <v>1005</v>
+      </c>
+      <c r="I68" s="13"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="8" t="str">
+        <f t="shared" ref="B69:B70" si="8">A$67</f>
+        <v>a2b2234c-286d-4b50-96f6-6dde00c07a28</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="H69" s="24">
+        <v>1010</v>
+      </c>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B70" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>a2b2234c-286d-4b50-96f6-6dde00c07a28</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F70" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="H70" s="24">
+        <v>1015</v>
+      </c>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" ht="66">
+      <c r="A71" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" s="19" t="b">
+      <c r="F71" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="G66" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" s="21">
-        <v>1050</v>
-      </c>
-      <c r="I66" s="22" t="s">
+      <c r="G71" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="21">
+        <v>1055</v>
+      </c>
+      <c r="I71" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3251,23 +3419,15 @@
     <mergeCell ref="C2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1 F45:F46 F3:F33 F42:F43 F48:F57 F59:F1048576">
-    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
+  <conditionalFormatting sqref="F1 F42:F43 F39:F40 F3:F30 F45:F1048576">
+    <cfRule type="cellIs" dxfId="7" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:F65">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -3275,7 +3435,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F44">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -3283,7 +3443,7 @@
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F41">
+  <conditionalFormatting sqref="F31:F38">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
